--- a/sg02/Assets/Resources/Config/Excel/Language.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Language.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t>CheckpointsNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.D.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,6 +677,30 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
